--- a/biology/Neurosciences/Philippe_Ascher/Philippe_Ascher.xlsx
+++ b/biology/Neurosciences/Philippe_Ascher/Philippe_Ascher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Ascher, né le 28 juillet 1936 à Commercy[1] et mort le 4 octobre 2022[2] à Paris[3], est un neuroscientifique français. 
-Il est professeur émérite de l'université Paris-Diderot. Il a consacré ses recherches principalement à la caractérisation de certains récepteurs de neurotransmetteurs. Il est membre correspondant de l'Académie des sciences depuis 1990[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Ascher, né le 28 juillet 1936 à Commercy et mort le 4 octobre 2022 à Paris, est un neuroscientifique français. 
+Il est professeur émérite de l'université Paris-Diderot. Il a consacré ses recherches principalement à la caractérisation de certains récepteurs de neurotransmetteurs. Il est membre correspondant de l'Académie des sciences depuis 1990.
 </t>
         </is>
       </c>
@@ -514,17 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Après avoir été élève de l'École normale supérieure de 1955 à 1959 et devenu agrégé de sciences naturelles en dernière année[6], Philippe Ascher consacre sa thèse à un problème d'organisation nerveuse (l'analyse des circuits impliqués dans la réaction de sursaut du chat anesthésié au chloralose). Il devient docteur ès sciences en 1965.
-Carrière
-Philippe Ascher s'est intéressé aux mécanismes ioniques associés à l'action des neurotransmetteurs. Sur les neurones d’Aplysie, il a étudié les effets inhibiteurs et excitateurs de la dopamine, et les actions excitatrices rapides de l'acétylcholine. Dans l’étude des neurones de mammifères, il a participé à la caractérisation des récepteurs du L-glutamate, en particulier ceux activés par l'acide N-méthyl-D-aspartique (récepteurs NMDA). Il a découvert le rôle des ions Mg dans le fonctionnement de ces récepteurs, et le rôle modulateur de la glycine. Il a étudié ensuite le rôle des récepteurs NMDA dans la plasticité de synapses cérébelleuses. 
-En 1965, il fait connaissance d'une post-doctorante dénommée JacSue Kehoe, qu'il épousera en 1967 et avec laquelle il aura une collaboration scientifique durant toute sa carrière. 
-En 1971, à l'École normale supérieure (ENS), il fonde le Laboratoire de Neurobiologie, dont il sera le directeur jusqu'en 2001. Puis en 1992[7], toujours à l'ENS, il prend la succession de Pierre Joliot à la tête du département de biologie (jusqu'en 1999). 
-En 1992, il reçoit le Prix Richard-Lounsbery de l’Académie des sciences et de la National Academy of sciences des États-Unis conjointement avec Henri Korn[8] pour « leurs découvertes sur les mécanismes de transmission synaptique. Philippe Ascher a fait progresser les connaissances sur les propriétés des récepteurs du glutamate qui jouent un rôle important dans l'apprentissage, et Henri Korn a mis en évidence la libération élémentaire du neurotransmetteur forme de quanta dans le système nerveux central des vertébrés ». 
-Ses recherches actuelles portent sur une synapse de la moelle épinière qui utilise à la fois l’acétylcholine et le glutamate.
-En 2003, arrivé à l'âge officiel de la retraite avec son épouse JacSue, il rejoint Alain Marty qui dirige le Laboratoire de Physiologie Cérébrale à l'Université Paris-Descartes. Il est à partir de 2019 professeur émérite au laboratoire SPPIN (Saint-Pères Paris Institute for Neurosciences)[9] du CNRS toujours à l'Université Paris-Descartes.
-Famille
-Philippe Ascher se marie en 1967 avec la chercheuse américaine JacSue Kehoe (morte en 2019[10]) avec laquelle il a eu deux fils.
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été élève de l'École normale supérieure de 1955 à 1959 et devenu agrégé de sciences naturelles en dernière année, Philippe Ascher consacre sa thèse à un problème d'organisation nerveuse (l'analyse des circuits impliqués dans la réaction de sursaut du chat anesthésié au chloralose). Il devient docteur ès sciences en 1965.
 </t>
         </is>
       </c>
@@ -550,16 +558,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie[5]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Ascher s'est intéressé aux mécanismes ioniques associés à l'action des neurotransmetteurs. Sur les neurones d’Aplysie, il a étudié les effets inhibiteurs et excitateurs de la dopamine, et les actions excitatrices rapides de l'acétylcholine. Dans l’étude des neurones de mammifères, il a participé à la caractérisation des récepteurs du L-glutamate, en particulier ceux activés par l'acide N-méthyl-D-aspartique (récepteurs NMDA). Il a découvert le rôle des ions Mg dans le fonctionnement de ces récepteurs, et le rôle modulateur de la glycine. Il a étudié ensuite le rôle des récepteurs NMDA dans la plasticité de synapses cérébelleuses. 
+En 1965, il fait connaissance d'une post-doctorante dénommée JacSue Kehoe, qu'il épousera en 1967 et avec laquelle il aura une collaboration scientifique durant toute sa carrière. 
+En 1971, à l'École normale supérieure (ENS), il fonde le Laboratoire de Neurobiologie, dont il sera le directeur jusqu'en 2001. Puis en 1992, toujours à l'ENS, il prend la succession de Pierre Joliot à la tête du département de biologie (jusqu'en 1999). 
+En 1992, il reçoit le Prix Richard-Lounsbery de l’Académie des sciences et de la National Academy of sciences des États-Unis conjointement avec Henri Korn pour « leurs découvertes sur les mécanismes de transmission synaptique. Philippe Ascher a fait progresser les connaissances sur les propriétés des récepteurs du glutamate qui jouent un rôle important dans l'apprentissage, et Henri Korn a mis en évidence la libération élémentaire du neurotransmetteur forme de quanta dans le système nerveux central des vertébrés ». 
+Ses recherches actuelles portent sur une synapse de la moelle épinière qui utilise à la fois l’acétylcholine et le glutamate.
+En 2003, arrivé à l'âge officiel de la retraite avec son épouse JacSue, il rejoint Alain Marty qui dirige le Laboratoire de Physiologie Cérébrale à l'Université Paris-Descartes. Il est à partir de 2019 professeur émérite au laboratoire SPPIN (Saint-Pères Paris Institute for Neurosciences) du CNRS toujours à l'Université Paris-Descartes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Ascher</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Ascher</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie[5]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Ascher se marie en 1967 avec la chercheuse américaine JacSue Kehoe (morte en 2019) avec laquelle il a eu deux fils.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Ascher</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Ascher</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1989 : élu à l'académie des sciences pan européenne Academia Europaea (section physiologie et neuroscience)[11]
-1990 :  Chevalier de la Légion d'honneur [12]
-1990 : élu correspondant de l'Académie des sciences (section biologie moléculaire et cellulaire, génomique)[4]
-1991-1996 : membre senior de l'Institut universitaire de France[13].
-1992 : Prix Richard-Lounsbery de l’Académie des sciences et de la National Academy of sciences des États-Unis[14]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1989 : élu à l'académie des sciences pan européenne Academia Europaea (section physiologie et neuroscience)
+1990 :  Chevalier de la Légion d'honneur 
+1990 : élu correspondant de l'Académie des sciences (section biologie moléculaire et cellulaire, génomique)
+1991-1996 : membre senior de l'Institut universitaire de France.
+1992 : Prix Richard-Lounsbery de l’Académie des sciences et de la National Academy of sciences des États-Unis</t>
         </is>
       </c>
     </row>
